--- a/results/eval/overall results.xlsx
+++ b/results/eval/overall results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\jupyter\Master Thesis\results\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AD8AE5-B945-4B60-BF85-88D831467C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8EB94-B46A-40B1-851D-9F05AF7B5A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="252" yWindow="360" windowWidth="10320" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12684" yWindow="528" windowWidth="10320" windowHeight="11364" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="left" sheetId="2" r:id="rId2"/>
     <sheet name="right" sheetId="3" r:id="rId3"/>
+    <sheet name="muscle" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="45">
   <si>
     <t>xgboost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +159,49 @@
   </si>
   <si>
     <t>lstm t3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT_TA</t>
+  </si>
+  <si>
+    <t>RIGHT_TS</t>
+  </si>
+  <si>
+    <t>LEFT_TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT_BF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT_RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIGHT_TA</t>
+  </si>
+  <si>
+    <t>RIGHT_BF</t>
+  </si>
+  <si>
+    <t>RIGHT_RF</t>
+  </si>
+  <si>
+    <t>xgb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwt-cnn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn-pa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lstm-cnn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -637,16 +681,16 @@
         <v>0.90293400000000001</v>
       </c>
       <c r="D5">
-        <v>0.98043000000000002</v>
+        <v>0.97847399999999995</v>
       </c>
       <c r="E5">
-        <v>0.41390100000000002</v>
+        <v>0.37344500000000003</v>
       </c>
       <c r="F5">
         <v>0.72058599999999995</v>
       </c>
       <c r="G5">
-        <v>0.62812900000000005</v>
+        <v>0.66169</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -734,7 +778,7 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>0.94809600000000005</v>
+        <v>0.92196</v>
       </c>
       <c r="C8">
         <v>0.89808900000000003</v>
@@ -746,10 +790,10 @@
         <v>0.351136</v>
       </c>
       <c r="F8">
-        <v>0.77801299999999995</v>
+        <v>0.70422099999999999</v>
       </c>
       <c r="G8">
-        <v>0.69871399999999995</v>
+        <v>0.65527000000000002</v>
       </c>
       <c r="L8" s="2">
         <v>10</v>
@@ -778,7 +822,7 @@
         <v>0.24687000000000001</v>
       </c>
       <c r="F9">
-        <v>0.696349</v>
+        <v>0.64600100000000005</v>
       </c>
       <c r="G9">
         <v>0.589916</v>
@@ -990,13 +1034,13 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="8:14" x14ac:dyDescent="0.25">
@@ -1010,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L23" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M23" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N23" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="8:14" x14ac:dyDescent="0.25">
@@ -1081,48 +1125,48 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J27" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M27" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N27" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N28">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N29">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="8:14" x14ac:dyDescent="0.25">
@@ -1364,10 +1408,10 @@
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I49" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J49" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -1402,13 +1446,13 @@
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M51" s="1">
         <v>18</v>
       </c>
       <c r="N51" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="8:14" x14ac:dyDescent="0.25">
@@ -1419,10 +1463,10 @@
         <v>164</v>
       </c>
       <c r="L52" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="N52" s="2">
         <v>0</v>
@@ -1430,13 +1474,13 @@
     </row>
     <row r="53" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L53" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M53" s="2">
         <v>1</v>
       </c>
       <c r="N53" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="8:14" x14ac:dyDescent="0.25">
@@ -1451,13 +1495,13 @@
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M54" s="1">
         <v>17</v>
       </c>
       <c r="N54" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="8:14" x14ac:dyDescent="0.25">
@@ -1468,24 +1512,24 @@
         <v>245</v>
       </c>
       <c r="L55" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M55" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N55" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L56" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="8:14" x14ac:dyDescent="0.25">
@@ -1549,13 +1593,13 @@
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M60" s="1">
+        <v>10</v>
+      </c>
+      <c r="N60" s="1">
         <v>8</v>
-      </c>
-      <c r="N60" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="61" spans="8:14" x14ac:dyDescent="0.25">
@@ -1569,21 +1613,21 @@
         <v>13</v>
       </c>
       <c r="M61">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L62">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="8:14" x14ac:dyDescent="0.25">
@@ -1650,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B252B3-1D49-4683-96BE-53ACC1324CD2}">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1821,22 +1865,22 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.89342100000000002</v>
+        <v>0.88774500000000001</v>
       </c>
       <c r="C5">
         <v>0.89278599999999997</v>
       </c>
       <c r="D5">
-        <v>0.97151100000000001</v>
+        <v>0.96769499999999997</v>
       </c>
       <c r="E5">
-        <v>0.22598699999999999</v>
+        <v>0.13896</v>
       </c>
       <c r="F5">
         <v>0.61285999999999996</v>
       </c>
       <c r="G5">
-        <v>0.48868200000000001</v>
+        <v>0.57325199999999998</v>
       </c>
       <c r="L5">
         <v>48</v>
@@ -1865,7 +1909,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.88774500000000001</v>
+        <v>0.89915100000000003</v>
       </c>
       <c r="C6">
         <v>0.89027900000000004</v>
@@ -1874,13 +1918,13 @@
         <v>0.96201899999999996</v>
       </c>
       <c r="E6">
-        <v>0.21473500000000001</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="F6">
         <v>0.58935099999999996</v>
       </c>
       <c r="G6">
-        <v>0.51691600000000004</v>
+        <v>0.56833500000000003</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>7</v>
@@ -1951,22 +1995,22 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>0.92430400000000001</v>
+        <v>0.93397399999999997</v>
       </c>
       <c r="C8">
-        <v>0.88978900000000005</v>
+        <v>0.892038</v>
       </c>
       <c r="D8">
         <v>0.97145599999999999</v>
       </c>
       <c r="E8">
-        <v>0.21009</v>
+        <v>0.22134400000000001</v>
       </c>
       <c r="F8">
-        <v>0.65531200000000001</v>
+        <v>0.69634399999999996</v>
       </c>
       <c r="G8">
-        <v>0.55767599999999995</v>
+        <v>0.56856899999999999</v>
       </c>
       <c r="L8" s="2">
         <v>13</v>
@@ -1995,7 +2039,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>0.92547900000000005</v>
+        <v>0.89866199999999996</v>
       </c>
       <c r="C9">
         <v>0.899254</v>
@@ -2007,10 +2051,10 @@
         <v>0.15285199999999999</v>
       </c>
       <c r="F9">
-        <v>0.65232900000000005</v>
+        <v>0.57173300000000005</v>
       </c>
       <c r="G9">
-        <v>0.45364700000000002</v>
+        <v>0.485037</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
@@ -2356,17 +2400,17 @@
         <v>14</v>
       </c>
       <c r="I21" s="1">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J21" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2392,10 +2436,10 @@
         <v>95</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -2415,13 +2459,13 @@
     </row>
     <row r="23" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L23" s="2">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M23" s="2">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -2526,20 +2570,20 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J27" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
+        <v>19</v>
+      </c>
+      <c r="M27" s="1">
         <v>22</v>
       </c>
-      <c r="M27" s="1">
-        <v>10</v>
-      </c>
       <c r="N27" s="1">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -2556,19 +2600,19 @@
     </row>
     <row r="28" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I28" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J28" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L28" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M28" s="2">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="N28" s="2">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -2585,10 +2629,10 @@
     </row>
     <row r="29" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L29" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" s="2">
         <v>76</v>
@@ -2611,17 +2655,17 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="J30" s="1">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M30" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
@@ -2641,16 +2685,16 @@
     </row>
     <row r="31" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I31" s="2">
+        <v>3</v>
+      </c>
+      <c r="J31" s="2">
+        <v>93</v>
+      </c>
+      <c r="L31" s="2">
+        <v>8</v>
+      </c>
+      <c r="M31" s="2">
         <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <v>95</v>
-      </c>
-      <c r="L31" s="2">
-        <v>5</v>
-      </c>
-      <c r="M31" s="2">
-        <v>4</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -2670,13 +2714,13 @@
     </row>
     <row r="32" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L32" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M32" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N32" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -2788,13 +2832,13 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M36" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N36" s="1">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -2817,13 +2861,13 @@
         <v>246</v>
       </c>
       <c r="L37" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M37" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N37" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -2840,13 +2884,13 @@
     </row>
     <row r="38" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L38" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M38" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N38" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -3062,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -3082,13 +3126,13 @@
     </row>
     <row r="50" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L50">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N50">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -3115,13 +3159,13 @@
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M51" s="1">
         <v>11</v>
       </c>
       <c r="N51" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -3138,19 +3182,19 @@
     </row>
     <row r="52" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>170</v>
+      </c>
+      <c r="L52" s="2">
+        <v>11</v>
+      </c>
+      <c r="M52" s="2">
+        <v>42</v>
+      </c>
+      <c r="N52" s="2">
         <v>1</v>
-      </c>
-      <c r="J52" s="2">
-        <v>169</v>
-      </c>
-      <c r="L52" s="2">
-        <v>2</v>
-      </c>
-      <c r="M52" s="2">
-        <v>41</v>
-      </c>
-      <c r="N52" s="2">
-        <v>11</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
@@ -3167,13 +3211,13 @@
     </row>
     <row r="53" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L53" s="2">
+        <v>18</v>
+      </c>
+      <c r="M53" s="2">
         <v>3</v>
       </c>
-      <c r="M53" s="2">
-        <v>1</v>
-      </c>
       <c r="N53" s="2">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
@@ -3200,13 +3244,13 @@
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M54" s="1">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N54" s="1">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -3229,13 +3273,13 @@
         <v>242</v>
       </c>
       <c r="L55" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M55" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N55" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -3252,13 +3296,13 @@
     </row>
     <row r="56" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L56" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M56" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N56" s="2">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -3278,10 +3322,10 @@
         <v>30</v>
       </c>
       <c r="I57" s="1">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J57" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1">
@@ -3308,10 +3352,10 @@
     </row>
     <row r="58" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I58" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J58" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L58" s="2">
         <v>2</v>
@@ -3373,10 +3417,10 @@
         <v>25</v>
       </c>
       <c r="M60" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N60" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
@@ -3399,13 +3443,13 @@
         <v>164</v>
       </c>
       <c r="L61" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M61" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N61" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -3422,13 +3466,13 @@
     </row>
     <row r="62" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L62" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M62" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N62" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -3455,13 +3499,13 @@
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M63" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N63" s="1">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
@@ -3484,13 +3528,13 @@
         <v>240</v>
       </c>
       <c r="L64" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M64" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N64" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
@@ -3507,13 +3551,13 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="L65" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M65" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N65" s="2">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
@@ -4076,7 +4120,7 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4215,13 +4259,13 @@
         <v>0.96576700000000004</v>
       </c>
       <c r="E5">
-        <v>0.34823399999999999</v>
+        <v>0.306645</v>
       </c>
       <c r="F5">
-        <v>0.64031700000000003</v>
+        <v>0.66122700000000001</v>
       </c>
       <c r="G5">
-        <v>0.51757799999999998</v>
+        <v>0.56602200000000003</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4246,7 +4290,7 @@
         <v>0.90521200000000002</v>
       </c>
       <c r="D6">
-        <v>0.96412799999999999</v>
+        <v>0.95745899999999995</v>
       </c>
       <c r="E6">
         <v>0.40605799999999997</v>
@@ -4306,7 +4350,7 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>0.79679100000000003</v>
+        <v>0.64990599999999998</v>
       </c>
       <c r="C8">
         <v>0.89733600000000002</v>
@@ -4315,13 +4359,13 @@
         <v>0.94698599999999999</v>
       </c>
       <c r="E8">
-        <v>0.38150000000000001</v>
+        <v>0.333648</v>
       </c>
       <c r="F8">
-        <v>0.76023499999999999</v>
+        <v>0.735097</v>
       </c>
       <c r="G8">
-        <v>0.67732999999999999</v>
+        <v>0.60569799999999996</v>
       </c>
       <c r="L8" s="2">
         <v>9</v>
@@ -4340,7 +4384,7 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>0.90410199999999996</v>
+        <v>0.88763700000000001</v>
       </c>
       <c r="C9">
         <v>0.91825100000000004</v>
@@ -4349,10 +4393,10 @@
         <v>0.91843799999999998</v>
       </c>
       <c r="E9">
-        <v>0.20294300000000001</v>
+        <v>0.188224</v>
       </c>
       <c r="F9">
-        <v>0.72374300000000003</v>
+        <v>0.65040600000000004</v>
       </c>
       <c r="G9">
         <v>0.43825599999999998</v>
@@ -4591,10 +4635,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -4610,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -4623,10 +4667,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N23" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -4643,13 +4687,13 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M24" s="1">
         <v>18</v>
       </c>
       <c r="N24" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -4662,26 +4706,26 @@
         <v>197</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M25">
         <v>31</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="8:16" x14ac:dyDescent="0.25">
       <c r="L26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -4698,13 +4742,13 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M27" s="1">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="N27" s="1">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -4717,26 +4761,26 @@
         <v>311</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M28">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="8:16" x14ac:dyDescent="0.25">
       <c r="L29">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N29">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -4856,52 +4900,52 @@
         <v>20</v>
       </c>
       <c r="I36" s="1">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="J36" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M36" s="1">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N36" s="1">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="8:16" x14ac:dyDescent="0.25">
       <c r="I37" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J37" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="L37" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M37" s="2">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="N37" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="8:16" x14ac:dyDescent="0.25">
       <c r="L38" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M38" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N38" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -4978,30 +5022,30 @@
         <v>26</v>
       </c>
       <c r="I48" s="1">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="J48" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N48" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="8:16" x14ac:dyDescent="0.25">
       <c r="I49" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="J49" s="2">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5020,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N50">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -5040,13 +5084,13 @@
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M51" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N51" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -5059,23 +5103,23 @@
         <v>198</v>
       </c>
       <c r="L52" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M52" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="8:16" x14ac:dyDescent="0.25">
       <c r="L53" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M53" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N53" s="2">
         <v>73</v>
@@ -5143,52 +5187,52 @@
         <v>30</v>
       </c>
       <c r="I57" s="1">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="J57" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M57" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N57" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="8:16" x14ac:dyDescent="0.25">
       <c r="I58" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J58" s="2">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L58" s="2">
         <v>6</v>
       </c>
       <c r="M58" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="8:16" x14ac:dyDescent="0.25">
       <c r="L59" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M59" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N59" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -5205,13 +5249,13 @@
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M60" s="1">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N60" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
@@ -5224,26 +5268,26 @@
         <v>190</v>
       </c>
       <c r="L61" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M61" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N61" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="8:16" x14ac:dyDescent="0.25">
       <c r="L62" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M62" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N62" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -5472,5 +5516,572 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FBD49-65B1-4A85-B710-3932891BA492}">
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>0.65294300000000005</v>
+      </c>
+      <c r="C3">
+        <v>0.86003200000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.86107199999999995</v>
+      </c>
+      <c r="E3">
+        <v>0.54649499999999995</v>
+      </c>
+      <c r="F3">
+        <v>0.77291399999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.68489800000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.75890599999999997</v>
+      </c>
+      <c r="I3">
+        <v>0.872915</v>
+      </c>
+      <c r="J3">
+        <v>0.93201699999999998</v>
+      </c>
+      <c r="K3">
+        <v>0.72262199999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.78988100000000006</v>
+      </c>
+      <c r="M3">
+        <v>0.788327</v>
+      </c>
+      <c r="N3">
+        <v>6.0079E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.62502199999999997</v>
+      </c>
+      <c r="P3">
+        <v>0.48117199999999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.178451</v>
+      </c>
+      <c r="R3">
+        <v>0.457841</v>
+      </c>
+      <c r="S3">
+        <v>0.38488099999999997</v>
+      </c>
+      <c r="T3">
+        <v>0.33145999999999998</v>
+      </c>
+      <c r="U3">
+        <v>0.49676500000000001</v>
+      </c>
+      <c r="V3">
+        <v>0.40731400000000001</v>
+      </c>
+      <c r="W3">
+        <v>0.35488199999999998</v>
+      </c>
+      <c r="X3">
+        <v>0.58135999999999999</v>
+      </c>
+      <c r="Y3">
+        <v>0.47567700000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.83910700000000005</v>
+      </c>
+      <c r="C4">
+        <v>0.84452400000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.87923300000000004</v>
+      </c>
+      <c r="E4">
+        <v>0.51636599999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.726302</v>
+      </c>
+      <c r="G4">
+        <v>0.84657000000000004</v>
+      </c>
+      <c r="H4">
+        <v>0.78588599999999997</v>
+      </c>
+      <c r="I4">
+        <v>0.86314999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.931558</v>
+      </c>
+      <c r="K4">
+        <v>0.84828400000000004</v>
+      </c>
+      <c r="L4">
+        <v>0.80625199999999997</v>
+      </c>
+      <c r="M4">
+        <v>0.842441</v>
+      </c>
+      <c r="N4">
+        <v>0.115272</v>
+      </c>
+      <c r="O4">
+        <v>0.61286499999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.47953699999999999</v>
+      </c>
+      <c r="Q4">
+        <v>0.108642</v>
+      </c>
+      <c r="R4">
+        <v>0.387515</v>
+      </c>
+      <c r="S4">
+        <v>0.37748599999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.395785</v>
+      </c>
+      <c r="U4">
+        <v>0.49359199999999998</v>
+      </c>
+      <c r="V4">
+        <v>0.31292500000000001</v>
+      </c>
+      <c r="W4">
+        <v>0.39818100000000001</v>
+      </c>
+      <c r="X4">
+        <v>0.63083599999999995</v>
+      </c>
+      <c r="Y4">
+        <v>0.46882499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0.67671599999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.86355000000000004</v>
+      </c>
+      <c r="D5">
+        <v>0.82468600000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.543346</v>
+      </c>
+      <c r="F5">
+        <v>0.73678399999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.82924100000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.73192299999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.86267499999999997</v>
+      </c>
+      <c r="J5">
+        <v>0.93045999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.91396500000000003</v>
+      </c>
+      <c r="L5">
+        <v>0.78917499999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.74316000000000004</v>
+      </c>
+      <c r="N5">
+        <v>0.122402</v>
+      </c>
+      <c r="O5">
+        <v>0.56171400000000005</v>
+      </c>
+      <c r="P5">
+        <v>0.48139199999999999</v>
+      </c>
+      <c r="Q5">
+        <v>5.5095999999999999E-2</v>
+      </c>
+      <c r="R5">
+        <v>0.479659</v>
+      </c>
+      <c r="S5">
+        <v>0.33436500000000002</v>
+      </c>
+      <c r="T5">
+        <v>0.34429999999999999</v>
+      </c>
+      <c r="U5">
+        <v>0.50332399999999999</v>
+      </c>
+      <c r="V5">
+        <v>0.38672699999999999</v>
+      </c>
+      <c r="W5">
+        <v>0.268264</v>
+      </c>
+      <c r="X5">
+        <v>0.63030699999999995</v>
+      </c>
+      <c r="Y5">
+        <v>0.49807000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>0.76237500000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.82006199999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.86586799999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.86413300000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.80115000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.881328</v>
+      </c>
+      <c r="H6">
+        <v>0.76087800000000005</v>
+      </c>
+      <c r="I6">
+        <v>0.85376700000000005</v>
+      </c>
+      <c r="J6">
+        <v>0.90709099999999998</v>
+      </c>
+      <c r="K6">
+        <v>0.85225700000000004</v>
+      </c>
+      <c r="L6">
+        <v>0.86719800000000002</v>
+      </c>
+      <c r="M6">
+        <v>0.88937100000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.269154</v>
+      </c>
+      <c r="O6">
+        <v>0.61061200000000004</v>
+      </c>
+      <c r="P6">
+        <v>0.48575200000000002</v>
+      </c>
+      <c r="Q6">
+        <v>9.2087000000000002E-2</v>
+      </c>
+      <c r="R6">
+        <v>0.48488100000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.33109499999999997</v>
+      </c>
+      <c r="T6">
+        <v>0.43159900000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.51863899999999996</v>
+      </c>
+      <c r="V6">
+        <v>0.47456700000000002</v>
+      </c>
+      <c r="W6">
+        <v>0.45194200000000001</v>
+      </c>
+      <c r="X6">
+        <v>0.60753000000000001</v>
+      </c>
+      <c r="Y6">
+        <v>0.55308599999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>0.87298100000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.85927299999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.907304</v>
+      </c>
+      <c r="E7">
+        <v>0.87002000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.81793499999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.918771</v>
+      </c>
+      <c r="H7">
+        <v>0.72429100000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.85482499999999995</v>
+      </c>
+      <c r="J7">
+        <v>0.94487600000000005</v>
+      </c>
+      <c r="K7">
+        <v>0.90558499999999997</v>
+      </c>
+      <c r="L7">
+        <v>0.86513499999999999</v>
+      </c>
+      <c r="M7">
+        <v>0.907555</v>
+      </c>
+      <c r="N7">
+        <v>0.161659</v>
+      </c>
+      <c r="O7">
+        <v>0.55963399999999996</v>
+      </c>
+      <c r="P7">
+        <v>0.48311300000000001</v>
+      </c>
+      <c r="Q7">
+        <v>0.18054799999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.36285000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="T7">
+        <v>0.39147100000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.49004599999999998</v>
+      </c>
+      <c r="V7">
+        <v>0.48565199999999997</v>
+      </c>
+      <c r="W7">
+        <v>0.355628</v>
+      </c>
+      <c r="X7">
+        <v>0.71566600000000002</v>
+      </c>
+      <c r="Y7">
+        <v>0.47326499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>0.69294299999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.81549099999999997</v>
+      </c>
+      <c r="D8">
+        <v>0.81904399999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.90417999999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.82977199999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.84820799999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.90497399999999995</v>
+      </c>
+      <c r="I8">
+        <v>0.81802399999999997</v>
+      </c>
+      <c r="J8">
+        <v>0.88089799999999996</v>
+      </c>
+      <c r="K8">
+        <v>0.90774100000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/eval/overall results.xlsx
+++ b/results/eval/overall results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\jupyter\Master Thesis\results\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8EB94-B46A-40B1-851D-9F05AF7B5A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2675C9E-BC86-41ED-9D63-F07295C8E6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12684" yWindow="528" windowWidth="10320" windowHeight="11364" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11364" yWindow="336" windowWidth="10320" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -684,10 +684,10 @@
         <v>0.97847399999999995</v>
       </c>
       <c r="E5">
-        <v>0.37344500000000003</v>
+        <v>0.422539</v>
       </c>
       <c r="F5">
-        <v>0.72058599999999995</v>
+        <v>0.71796000000000004</v>
       </c>
       <c r="G5">
         <v>0.66169</v>
@@ -784,7 +784,7 @@
         <v>0.89808900000000003</v>
       </c>
       <c r="D8">
-        <v>0.98433400000000004</v>
+        <v>0.976491</v>
       </c>
       <c r="E8">
         <v>0.351136</v>
@@ -793,7 +793,7 @@
         <v>0.70422099999999999</v>
       </c>
       <c r="G8">
-        <v>0.65527000000000002</v>
+        <v>0.60874300000000003</v>
       </c>
       <c r="L8" s="2">
         <v>10</v>
@@ -825,7 +825,7 @@
         <v>0.64600100000000005</v>
       </c>
       <c r="G9">
-        <v>0.589916</v>
+        <v>0.60295100000000001</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
@@ -848,6 +848,12 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.93513900000000005</v>
+      </c>
+      <c r="D10">
+        <v>0.96081700000000003</v>
+      </c>
       <c r="I10">
         <v>14</v>
       </c>
@@ -865,6 +871,18 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>276</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>254</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
       <c r="L11" s="2">
         <v>13</v>
       </c>
@@ -876,6 +894,18 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>89</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>237</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
@@ -914,6 +944,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>0.226053</v>
+      </c>
       <c r="L14">
         <v>4</v>
       </c>
@@ -925,6 +958,15 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
@@ -946,6 +988,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
       <c r="I16">
         <v>0</v>
       </c>
@@ -962,7 +1013,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
       <c r="L17" s="2">
         <v>12</v>
       </c>
@@ -973,7 +1033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
@@ -994,7 +1054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I19">
         <v>6</v>
       </c>
@@ -1011,7 +1071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="L20" s="2">
         <v>14</v>
       </c>
@@ -1022,7 +1082,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
@@ -1034,16 +1094,16 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N21" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I22" s="2">
         <v>2</v>
       </c>
@@ -1054,24 +1114,24 @@
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="8:14" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
       <c r="L23" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M23" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N23" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,16 +1143,16 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M24" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I25" s="2">
         <v>0</v>
       </c>
@@ -1100,27 +1160,27 @@
         <v>167</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="8:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
       <c r="L26">
         <v>8</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I28" s="2">
         <v>4</v>
       </c>
@@ -1158,7 +1218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>6</v>
       </c>
@@ -1169,7 +1229,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="H30" s="1" t="s">
         <v>19</v>
       </c>
@@ -1190,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="I31" s="2">
         <v>18</v>
       </c>
@@ -1207,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:14" x14ac:dyDescent="0.25">
       <c r="L32" s="2">
         <v>16</v>
       </c>
@@ -1495,41 +1555,41 @@
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M54" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N54" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="8:14" x14ac:dyDescent="0.25">
       <c r="I55" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J55" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L55" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M55" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N55" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L56" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M56" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N56" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="8:14" x14ac:dyDescent="0.25">
@@ -1642,13 +1702,13 @@
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M63" s="1">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N63" s="1">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="8:14" x14ac:dyDescent="0.25">
@@ -1659,24 +1719,24 @@
         <v>243</v>
       </c>
       <c r="L64" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M64" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N64" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L65" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M65" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N65" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1755,7 @@
   <dimension ref="A1:Z84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1865,16 +1925,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.88774500000000001</v>
+        <v>0.90440699999999996</v>
       </c>
       <c r="C5">
         <v>0.89278599999999997</v>
       </c>
       <c r="D5">
-        <v>0.96769499999999997</v>
+        <v>0.96006899999999995</v>
       </c>
       <c r="E5">
-        <v>0.13896</v>
+        <v>0.12017600000000001</v>
       </c>
       <c r="F5">
         <v>0.61285999999999996</v>
@@ -2001,16 +2061,16 @@
         <v>0.892038</v>
       </c>
       <c r="D8">
-        <v>0.97145599999999999</v>
+        <v>0.96384499999999995</v>
       </c>
       <c r="E8">
-        <v>0.22134400000000001</v>
+        <v>0.26535900000000001</v>
       </c>
       <c r="F8">
         <v>0.69634399999999996</v>
       </c>
       <c r="G8">
-        <v>0.56856899999999999</v>
+        <v>0.55522000000000005</v>
       </c>
       <c r="L8" s="2">
         <v>13</v>
@@ -2042,13 +2102,13 @@
         <v>0.89866199999999996</v>
       </c>
       <c r="C9">
-        <v>0.899254</v>
+        <v>0.90938200000000002</v>
       </c>
       <c r="D9">
         <v>0.96005499999999999</v>
       </c>
       <c r="E9">
-        <v>0.15285199999999999</v>
+        <v>0.20483599999999999</v>
       </c>
       <c r="F9">
         <v>0.57173300000000005</v>
@@ -2400,17 +2460,17 @@
         <v>14</v>
       </c>
       <c r="I21" s="1">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="J21" s="1">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2430,10 +2490,10 @@
     </row>
     <row r="22" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
@@ -2459,10 +2519,10 @@
     </row>
     <row r="23" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L23" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="M23" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N23" s="2">
         <v>3</v>
@@ -2600,10 +2660,10 @@
     </row>
     <row r="28" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I28" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J28" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L28" s="2">
         <v>8</v>
@@ -3106,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -3126,13 +3186,13 @@
     </row>
     <row r="50" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L50">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N50">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -3237,20 +3297,20 @@
         <v>28</v>
       </c>
       <c r="I54" s="1">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J54" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M54" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N54" s="1">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
@@ -3267,19 +3327,19 @@
     </row>
     <row r="55" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I55" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J55" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L55" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M55" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N55" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -3296,13 +3356,13 @@
     </row>
     <row r="56" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L56" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M56" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N56" s="2">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -3329,10 +3389,10 @@
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N57" s="1">
         <v>0</v>
@@ -3381,13 +3441,13 @@
     </row>
     <row r="59" spans="8:26" x14ac:dyDescent="0.25">
       <c r="L59" s="2">
+        <v>16</v>
+      </c>
+      <c r="M59" s="2">
+        <v>45</v>
+      </c>
+      <c r="N59" s="2">
         <v>13</v>
-      </c>
-      <c r="M59" s="2">
-        <v>49</v>
-      </c>
-      <c r="N59" s="2">
-        <v>12</v>
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -3407,10 +3467,10 @@
         <v>31</v>
       </c>
       <c r="I60" s="1">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J60" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1">
@@ -3437,10 +3497,10 @@
     </row>
     <row r="61" spans="8:26" x14ac:dyDescent="0.25">
       <c r="I61" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J61" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L61" s="2">
         <v>17</v>
@@ -4350,10 +4410,10 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>0.64990599999999998</v>
+        <v>0.64180899999999996</v>
       </c>
       <c r="C8">
-        <v>0.89733600000000002</v>
+        <v>0.87378599999999995</v>
       </c>
       <c r="D8">
         <v>0.94698599999999999</v>
@@ -4384,22 +4444,22 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>0.88763700000000001</v>
+        <v>0.86767300000000003</v>
       </c>
       <c r="C9">
         <v>0.91825100000000004</v>
       </c>
       <c r="D9">
-        <v>0.91843799999999998</v>
+        <v>0.92344999999999999</v>
       </c>
       <c r="E9">
-        <v>0.188224</v>
+        <v>0.22136700000000001</v>
       </c>
       <c r="F9">
-        <v>0.65040600000000004</v>
+        <v>0.66031200000000001</v>
       </c>
       <c r="G9">
-        <v>0.43825599999999998</v>
+        <v>0.54863099999999998</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
@@ -5022,10 +5082,10 @@
         <v>26</v>
       </c>
       <c r="I48" s="1">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="J48" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1">
@@ -5042,10 +5102,10 @@
     </row>
     <row r="49" spans="8:16" x14ac:dyDescent="0.25">
       <c r="I49" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J49" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -5077,10 +5137,10 @@
         <v>27</v>
       </c>
       <c r="I51" s="1">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J51" s="1">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1">
@@ -5187,36 +5247,36 @@
         <v>30</v>
       </c>
       <c r="I57" s="1">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="J57" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M57" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N57" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="8:16" x14ac:dyDescent="0.25">
       <c r="I58" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J58" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L58" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M58" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N58" s="2">
         <v>1</v>
@@ -5226,13 +5286,13 @@
     </row>
     <row r="59" spans="8:16" x14ac:dyDescent="0.25">
       <c r="L59" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M59" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N59" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -5249,13 +5309,13 @@
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M60" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N60" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
@@ -5268,26 +5328,26 @@
         <v>190</v>
       </c>
       <c r="L61" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M61" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N61" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="8:16" x14ac:dyDescent="0.25">
       <c r="L62" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M62" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N62" s="2">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -5297,52 +5357,52 @@
         <v>32</v>
       </c>
       <c r="I63" s="1">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J63" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M63" s="1">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="N63" s="1">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="8:16" x14ac:dyDescent="0.25">
       <c r="I64" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J64" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L64" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M64" s="2">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N64" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N65" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
@@ -5524,8 +5584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FBD49-65B1-4A85-B710-3932891BA492}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5902,16 +5962,16 @@
         <v>0.881328</v>
       </c>
       <c r="H6">
-        <v>0.76087800000000005</v>
+        <v>0.73297599999999996</v>
       </c>
       <c r="I6">
-        <v>0.85376700000000005</v>
+        <v>0.86143700000000001</v>
       </c>
       <c r="J6">
-        <v>0.90709099999999998</v>
+        <v>0.92978400000000005</v>
       </c>
       <c r="K6">
-        <v>0.85225700000000004</v>
+        <v>0.85355499999999995</v>
       </c>
       <c r="L6">
         <v>0.86719800000000002</v>
@@ -5964,73 +6024,73 @@
         <v>0.87298100000000001</v>
       </c>
       <c r="C7">
-        <v>0.85927299999999995</v>
+        <v>0.88642299999999996</v>
       </c>
       <c r="D7">
         <v>0.907304</v>
       </c>
       <c r="E7">
-        <v>0.87002000000000002</v>
+        <v>0.89935900000000002</v>
       </c>
       <c r="F7">
         <v>0.81793499999999997</v>
       </c>
       <c r="G7">
-        <v>0.918771</v>
+        <v>0.87080400000000002</v>
       </c>
       <c r="H7">
-        <v>0.72429100000000002</v>
+        <v>0.69064700000000001</v>
       </c>
       <c r="I7">
-        <v>0.85482499999999995</v>
+        <v>0.86772099999999996</v>
       </c>
       <c r="J7">
-        <v>0.94487600000000005</v>
+        <v>0.93033399999999999</v>
       </c>
       <c r="K7">
-        <v>0.90558499999999997</v>
+        <v>0.89601299999999995</v>
       </c>
       <c r="L7">
-        <v>0.86513499999999999</v>
+        <v>0.85895299999999997</v>
       </c>
       <c r="M7">
-        <v>0.907555</v>
+        <v>0.88151999999999997</v>
       </c>
       <c r="N7">
-        <v>0.161659</v>
+        <v>0.26107200000000003</v>
       </c>
       <c r="O7">
         <v>0.55963399999999996</v>
       </c>
       <c r="P7">
-        <v>0.48311300000000001</v>
+        <v>0.427564</v>
       </c>
       <c r="Q7">
-        <v>0.18054799999999999</v>
+        <v>0.20802599999999999</v>
       </c>
       <c r="R7">
-        <v>0.36285000000000001</v>
+        <v>0.42131000000000002</v>
       </c>
       <c r="S7">
-        <v>0.35549999999999998</v>
+        <v>0.43640099999999998</v>
       </c>
       <c r="T7">
-        <v>0.39147100000000001</v>
+        <v>0.43687100000000001</v>
       </c>
       <c r="U7">
         <v>0.49004599999999998</v>
       </c>
       <c r="V7">
-        <v>0.48565199999999997</v>
+        <v>0.46966599999999997</v>
       </c>
       <c r="W7">
-        <v>0.355628</v>
+        <v>0.36322300000000002</v>
       </c>
       <c r="X7">
-        <v>0.71566600000000002</v>
+        <v>0.67316900000000002</v>
       </c>
       <c r="Y7">
-        <v>0.47326499999999999</v>
+        <v>0.50750600000000001</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -6044,7 +6104,7 @@
         <v>0.81549099999999997</v>
       </c>
       <c r="D8">
-        <v>0.81904399999999999</v>
+        <v>0.85289300000000001</v>
       </c>
       <c r="E8">
         <v>0.90417999999999998</v>
@@ -6066,6 +6126,48 @@
       </c>
       <c r="K8">
         <v>0.90774100000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.85836400000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.76714099999999996</v>
+      </c>
+      <c r="N8">
+        <v>0.162491</v>
+      </c>
+      <c r="O8">
+        <v>0.53647800000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.403609</v>
+      </c>
+      <c r="Q8">
+        <v>0.22906199999999999</v>
+      </c>
+      <c r="R8">
+        <v>0.48891899999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.364734</v>
+      </c>
+      <c r="T8">
+        <v>0.42757499999999998</v>
+      </c>
+      <c r="U8">
+        <v>0.45240599999999997</v>
+      </c>
+      <c r="V8">
+        <v>0.35241299999999998</v>
+      </c>
+      <c r="W8">
+        <v>0.44989000000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.60105799999999998</v>
+      </c>
+      <c r="Y8">
+        <v>0.44265700000000002</v>
       </c>
     </row>
   </sheetData>
